--- a/team_specific_matrix/Loyola Chicago_B.xlsx
+++ b/team_specific_matrix/Loyola Chicago_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1912350597609562</v>
+        <v>0.1836065573770492</v>
       </c>
       <c r="C2">
-        <v>0.5617529880478087</v>
+        <v>0.5704918032786885</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00796812749003984</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1474103585657371</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09163346613545817</v>
+        <v>0.09180327868852459</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006993006993006993</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03496503496503497</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7062937062937062</v>
+        <v>0.6988636363636364</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2517482517482518</v>
+        <v>0.2670454545454545</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2307692307692308</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0594059405940594</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01485148514851485</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="E6">
-        <v>0.004950495049504951</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="F6">
-        <v>0.06930693069306931</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3118811881188119</v>
+        <v>0.3130081300813008</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02475247524752475</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.103960396039604</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="R6">
-        <v>0.0594059405940594</v>
+        <v>0.06910569105691057</v>
       </c>
       <c r="S6">
-        <v>0.3514851485148515</v>
+        <v>0.3455284552845528</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07633587786259542</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01526717557251908</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04580152671755725</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1374045801526718</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03053435114503817</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1297709923664122</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="R7">
-        <v>0.08396946564885496</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="S7">
-        <v>0.4809160305343512</v>
+        <v>0.4393063583815029</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1114551083591331</v>
+        <v>0.1042183622828784</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009287925696594427</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06501547987616099</v>
+        <v>0.0620347394540943</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08359133126934984</v>
+        <v>0.09181141439205956</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03405572755417956</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1702786377708978</v>
+        <v>0.1588089330024814</v>
       </c>
       <c r="R8">
-        <v>0.08359133126934984</v>
+        <v>0.08436724565756824</v>
       </c>
       <c r="S8">
-        <v>0.4427244582043344</v>
+        <v>0.4540942928039702</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09937888198757763</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006211180124223602</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1055900621118012</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0124223602484472</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1614906832298137</v>
+        <v>0.158974358974359</v>
       </c>
       <c r="R9">
-        <v>0.08074534161490683</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="S9">
-        <v>0.4472049689440994</v>
+        <v>0.4512820512820513</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1433408577878104</v>
+        <v>0.1377459749552773</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02031602708803612</v>
+        <v>0.02057245080500894</v>
       </c>
       <c r="E10">
-        <v>0.002257336343115124</v>
+        <v>0.001788908765652952</v>
       </c>
       <c r="F10">
-        <v>0.08803611738148984</v>
+        <v>0.08228980322003578</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09480812641083522</v>
+        <v>0.09838998211091235</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01693002257336343</v>
+        <v>0.01699463327370304</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1568848758465011</v>
+        <v>0.165474060822898</v>
       </c>
       <c r="R10">
-        <v>0.08690744920993228</v>
+        <v>0.08407871198568873</v>
       </c>
       <c r="S10">
-        <v>0.3905191873589165</v>
+        <v>0.3926654740608229</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1834862385321101</v>
+        <v>0.1745454545454546</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08256880733944955</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="K11">
-        <v>0.2431192660550459</v>
+        <v>0.2327272727272727</v>
       </c>
       <c r="L11">
-        <v>0.481651376146789</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009174311926605505</v>
+        <v>0.01090909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7087378640776699</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2233009708737864</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="K12">
-        <v>0.01941747572815534</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04854368932038835</v>
+        <v>0.03597122302158273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01704545454545454</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1420454545454546</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="I15">
-        <v>0.09659090909090909</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J15">
-        <v>0.3409090909090909</v>
+        <v>0.3397129186602871</v>
       </c>
       <c r="K15">
-        <v>0.03977272727272727</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01704545454545454</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09659090909090909</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01910828025477707</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1974522292993631</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I16">
-        <v>0.08917197452229299</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J16">
-        <v>0.3312101910828025</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1210191082802548</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03821656050955414</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08917197452229299</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1146496815286624</v>
+        <v>0.1216931216931217</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02325581395348837</v>
+        <v>0.02694610778443114</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2015503875968992</v>
+        <v>0.2005988023952096</v>
       </c>
       <c r="I17">
-        <v>0.08139534883720931</v>
+        <v>0.09281437125748503</v>
       </c>
       <c r="J17">
-        <v>0.437984496124031</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="K17">
-        <v>0.07364341085271318</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02325581395348837</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06976744186046512</v>
+        <v>0.06287425149700598</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08914728682170543</v>
+        <v>0.07784431137724551</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02857142857142857</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1642857142857143</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.09285714285714286</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.4642857142857143</v>
+        <v>0.4685714285714286</v>
       </c>
       <c r="K18">
-        <v>0.08571428571428572</v>
+        <v>0.08</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02142857142857143</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09285714285714286</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03691983122362869</v>
+        <v>0.03456998313659359</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2120253164556962</v>
+        <v>0.2141652613827993</v>
       </c>
       <c r="I19">
-        <v>0.09915611814345991</v>
+        <v>0.09359190556492411</v>
       </c>
       <c r="J19">
-        <v>0.3618143459915612</v>
+        <v>0.3659359190556493</v>
       </c>
       <c r="K19">
-        <v>0.1086497890295359</v>
+        <v>0.1112984822934233</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02004219409282701</v>
+        <v>0.02107925801011805</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06540084388185655</v>
+        <v>0.05986509274873524</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09599156118143459</v>
+        <v>0.09949409780775717</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Loyola Chicago_B.xlsx
+++ b/team_specific_matrix/Loyola Chicago_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1836065573770492</v>
+        <v>0.1730205278592375</v>
       </c>
       <c r="C2">
-        <v>0.5704918032786885</v>
+        <v>0.5894428152492669</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006557377049180328</v>
+        <v>0.008797653958944282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1475409836065574</v>
+        <v>0.1378299120234604</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09180327868852459</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005681818181818182</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02840909090909091</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6988636363636364</v>
+        <v>0.7121951219512195</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2670454545454545</v>
+        <v>0.248780487804878</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.075</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6764705882352942</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06097560975609756</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01626016260162602</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="E6">
-        <v>0.004065040650406504</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="F6">
-        <v>0.06097560975609756</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3130081300813008</v>
+        <v>0.3003663003663004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02032520325203252</v>
+        <v>0.01831501831501832</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1097560975609756</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="R6">
-        <v>0.06910569105691057</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="S6">
-        <v>0.3455284552845528</v>
+        <v>0.36996336996337</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09826589595375723</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0115606936416185</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05202312138728324</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.138728323699422</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02312138728323699</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1445086705202312</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="R7">
-        <v>0.09248554913294797</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="S7">
-        <v>0.4393063583815029</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1042183622828784</v>
+        <v>0.1146067415730337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01240694789081886</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0620347394540943</v>
+        <v>0.0651685393258427</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09181141439205956</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03225806451612903</v>
+        <v>0.02921348314606742</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1588089330024814</v>
+        <v>0.1528089887640449</v>
       </c>
       <c r="R8">
-        <v>0.08436724565756824</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S8">
-        <v>0.4540942928039702</v>
+        <v>0.4584269662921348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09743589743589744</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005128205128205128</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F9">
-        <v>0.09230769230769231</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1128205128205128</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01025641025641026</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.158974358974359</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="R9">
-        <v>0.07179487179487179</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="S9">
-        <v>0.4512820512820513</v>
+        <v>0.4469026548672566</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1377459749552773</v>
+        <v>0.1371610845295056</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02057245080500894</v>
+        <v>0.02312599681020734</v>
       </c>
       <c r="E10">
-        <v>0.001788908765652952</v>
+        <v>0.002392344497607655</v>
       </c>
       <c r="F10">
-        <v>0.08228980322003578</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09838998211091235</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01699463327370304</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.165474060822898</v>
+        <v>0.1690590111642743</v>
       </c>
       <c r="R10">
-        <v>0.08407871198568873</v>
+        <v>0.08293460925039872</v>
       </c>
       <c r="S10">
-        <v>0.3926654740608229</v>
+        <v>0.3891547049441786</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1745454545454546</v>
+        <v>0.1757188498402556</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07272727272727272</v>
+        <v>0.07987220447284345</v>
       </c>
       <c r="K11">
-        <v>0.2327272727272727</v>
+        <v>0.2364217252396166</v>
       </c>
       <c r="L11">
-        <v>0.509090909090909</v>
+        <v>0.4984025559105431</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01090909090909091</v>
+        <v>0.009584664536741214</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7482014388489209</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1870503597122302</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="K12">
-        <v>0.01438848920863309</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L12">
-        <v>0.01438848920863309</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03597122302158273</v>
+        <v>0.03205128205128205</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6279069767441861</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3255813953488372</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02392344497607655</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1339712918660287</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="I15">
-        <v>0.09090909090909091</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="J15">
-        <v>0.3397129186602871</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.03827751196172249</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01913875598086124</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2631578947368421</v>
+        <v>0.2489451476793249</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01587301587301587</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1904761904761905</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="I16">
-        <v>0.09523809523809523</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.3318181818181818</v>
       </c>
       <c r="K16">
-        <v>0.126984126984127</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03174603174603174</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08465608465608465</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1216931216931217</v>
+        <v>0.1272727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02694610778443114</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2005988023952096</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="I17">
-        <v>0.09281437125748503</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="J17">
-        <v>0.437125748502994</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="K17">
-        <v>0.07784431137724551</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02395209580838323</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06287425149700598</v>
+        <v>0.06182795698924731</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07784431137724551</v>
+        <v>0.08602150537634409</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03428571428571429</v>
+        <v>0.03125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.16</v>
+        <v>0.15625</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.09375</v>
       </c>
       <c r="J18">
-        <v>0.4685714285714286</v>
+        <v>0.4739583333333333</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.078125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01714285714285714</v>
+        <v>0.015625</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07428571428571429</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08</v>
+        <v>0.078125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03456998313659359</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2141652613827993</v>
+        <v>0.2096168294515402</v>
       </c>
       <c r="I19">
-        <v>0.09359190556492411</v>
+        <v>0.09691960931630353</v>
       </c>
       <c r="J19">
-        <v>0.3659359190556493</v>
+        <v>0.3703981968444778</v>
       </c>
       <c r="K19">
-        <v>0.1112984822934233</v>
+        <v>0.1104432757325319</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02107925801011805</v>
+        <v>0.01953418482344102</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05986509274873524</v>
+        <v>0.06160781367392937</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09949409780775717</v>
+        <v>0.09842223891810668</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Loyola Chicago_B.xlsx
+++ b/team_specific_matrix/Loyola Chicago_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1730205278592375</v>
+        <v>0.1732954545454546</v>
       </c>
       <c r="C2">
-        <v>0.5894428152492669</v>
+        <v>0.5852272727272727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008797653958944282</v>
+        <v>0.008522727272727272</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1378299120234604</v>
+        <v>0.1392045454545454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09090909090909091</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01463414634146342</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7121951219512195</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.248780487804878</v>
+        <v>0.2476190476190476</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.225</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05860805860805861</v>
+        <v>0.05985915492957746</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01465201465201465</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E6">
-        <v>0.003663003663003663</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="F6">
-        <v>0.06227106227106227</v>
+        <v>0.05985915492957746</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3003663003663004</v>
+        <v>0.2922535211267606</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01831501831501832</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1025641025641026</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="R6">
-        <v>0.0695970695970696</v>
+        <v>0.06690140845070422</v>
       </c>
       <c r="S6">
-        <v>0.36996336996337</v>
+        <v>0.3802816901408451</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08994708994708994</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01058201058201058</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1322751322751323</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02116402116402116</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1481481481481481</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="R7">
-        <v>0.08994708994708994</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="S7">
-        <v>0.4603174603174603</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1146067415730337</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01123595505617977</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0651685393258427</v>
+        <v>0.06798245614035088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0898876404494382</v>
+        <v>0.08991228070175439</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02921348314606742</v>
+        <v>0.02850877192982456</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1528089887640449</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R8">
-        <v>0.07865168539325842</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S8">
-        <v>0.4584269662921348</v>
+        <v>0.4517543859649123</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1061946902654867</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004424778761061947</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="E9">
-        <v>0.004424778761061947</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F9">
-        <v>0.09292035398230089</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1106194690265487</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008849557522123894</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1504424778761062</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R9">
-        <v>0.0752212389380531</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="S9">
-        <v>0.4469026548672566</v>
+        <v>0.4468085106382979</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1371610845295056</v>
+        <v>0.1348228043143297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02312599681020734</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="E10">
-        <v>0.002392344497607655</v>
+        <v>0.002311248073959939</v>
       </c>
       <c r="F10">
-        <v>0.08133971291866028</v>
+        <v>0.08320493066255778</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09569377990430622</v>
+        <v>0.09707241910631741</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01913875598086124</v>
+        <v>0.01848998459167951</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1690590111642743</v>
+        <v>0.1687211093990755</v>
       </c>
       <c r="R10">
-        <v>0.08293460925039872</v>
+        <v>0.08166409861325115</v>
       </c>
       <c r="S10">
-        <v>0.3891547049441786</v>
+        <v>0.3906009244992296</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1757188498402556</v>
+        <v>0.1697530864197531</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07987220447284345</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="K11">
-        <v>0.2364217252396166</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="L11">
-        <v>0.4984025559105431</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009584664536741214</v>
+        <v>0.009259259259259259</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.717948717948718</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.217948717948718</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03205128205128205</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6304347826086957</v>
+        <v>0.62</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.34</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02531645569620253</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1308016877637131</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="I15">
-        <v>0.09282700421940929</v>
+        <v>0.09426229508196721</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="K15">
-        <v>0.04641350210970464</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02109704641350211</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1012658227848101</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2489451476793249</v>
+        <v>0.2459016393442623</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01363636363636364</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1772727272727273</v>
+        <v>0.1762114537444934</v>
       </c>
       <c r="I16">
-        <v>0.1045454545454545</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="J16">
-        <v>0.3318181818181818</v>
+        <v>0.3259911894273128</v>
       </c>
       <c r="K16">
-        <v>0.1272727272727273</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03181818181818181</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08636363636363636</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1272727272727273</v>
+        <v>0.1277533039647577</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02419354838709677</v>
+        <v>0.0233160621761658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2043010752688172</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="I17">
-        <v>0.08870967741935484</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J17">
-        <v>0.4301075268817204</v>
+        <v>0.4300518134715026</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.08549222797927461</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02150537634408602</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06182795698924731</v>
+        <v>0.05958549222797927</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08602150537634409</v>
+        <v>0.08549222797927461</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03125</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.15625</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="I18">
-        <v>0.09375</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="J18">
-        <v>0.4739583333333333</v>
+        <v>0.4744897959183674</v>
       </c>
       <c r="K18">
-        <v>0.078125</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015625</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07291666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.078125</v>
+        <v>0.07653061224489796</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03305785123966942</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2096168294515402</v>
+        <v>0.2069716775599129</v>
       </c>
       <c r="I19">
-        <v>0.09691960931630353</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J19">
-        <v>0.3703981968444778</v>
+        <v>0.3710965867828613</v>
       </c>
       <c r="K19">
-        <v>0.1104432757325319</v>
+        <v>0.1096586782861293</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01953418482344102</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06160781367392937</v>
+        <v>0.06245461147421932</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09842223891810668</v>
+        <v>0.09949164851125636</v>
       </c>
     </row>
   </sheetData>
